--- a/class_central.xlsx
+++ b/class_central.xlsx
@@ -295,492 +295,492 @@
     <t>https://www.class-central.com/mooc/7745/coursera-data-science-math-skills</t>
   </si>
   <si>
+    <t>Data Processing Using Python</t>
+  </si>
+  <si>
+    <t>Nanjing University</t>
+  </si>
+  <si>
+    <t>13th Feb, 2017</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/7751/coursera-data-processing-using-python</t>
+  </si>
+  <si>
+    <t>Qualitative Research Methods</t>
+  </si>
+  <si>
+    <t>University of Amsterdam</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4176/coursera-qualitative-research-methods</t>
+  </si>
+  <si>
+    <t>Predictive Analytics: Gaining Insights from Big Data</t>
+  </si>
+  <si>
+    <t>Queensland University of Technology</t>
+  </si>
+  <si>
+    <t>20th Feb, 2017</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/7645/futurelearn-predictive-analytics-gaining-insights-from-big-data</t>
+  </si>
+  <si>
+    <t>Applied Data Science: An Introduction</t>
+  </si>
+  <si>
+    <t>Syracuse University</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Open Education by Blackboard</t>
+  </si>
+  <si>
+    <t>Self paced</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1806/open-education-by-blackboard-applied-data-science-an-introduction</t>
+  </si>
+  <si>
+    <t>Intro to Hadoop and MapReduce</t>
+  </si>
+  <si>
+    <t>Cloudera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Udacity</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1470/udacity-intro-to-hadoop-and-mapreduce</t>
+  </si>
+  <si>
+    <t>Big Data applications and Analytics</t>
+  </si>
+  <si>
+    <t>Indiana University</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Independent</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1948/big-data-applications-and-analytics</t>
+  </si>
+  <si>
+    <t>Intro to Data Science</t>
+  </si>
+  <si>
+    <t>No provider</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1480/udacity-intro-to-data-science</t>
+  </si>
+  <si>
+    <t>Data Analysis with R</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1478/udacity-data-analysis-with-r</t>
+  </si>
+  <si>
+    <t>Making Sense of Data</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1821/making-sense-of-data</t>
+  </si>
+  <si>
+    <t>Data, Analytics and Learning</t>
+  </si>
+  <si>
+    <t>University of Texas Arlington</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/2144/edx-data-analytics-and-learning</t>
+  </si>
+  <si>
+    <t>Real-Time Analytics with Apache Storm</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/3000/udacity-real-time-analytics-with-apache-storm</t>
+  </si>
+  <si>
+    <t>Data Visualization and D3.js</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/2898/udacity-data-visualization-and-d3-js</t>
+  </si>
+  <si>
+    <t>Model Building and Validation</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/3256/udacity-model-building-and-validation</t>
+  </si>
+  <si>
+    <t>Health Informatics in the Cloud</t>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology, Georgia Tech Online Master of Science in Computer Science</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/3288/udacity-health-informatics-in-the-cloud</t>
+  </si>
+  <si>
+    <t>Datascience et Analyse situationnelle : dans les coulisses du Big Data</t>
+  </si>
+  <si>
+    <t>IONIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IONIS</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/2186/ionis-datascience-et-analyse-situationnelle-dans-les-coulisses-du-big-data</t>
+  </si>
+  <si>
+    <t>Big Data in Education</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/3725/edx-big-data-in-education</t>
+  </si>
+  <si>
+    <t>Sabermetrics 101: Introduction to Baseball Analytics</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1837/edx-sabermetrics-101-introduction-to-baseball-analytics</t>
+  </si>
+  <si>
+    <t>Explore Statistics with R</t>
+  </si>
+  <si>
+    <t>Karolinska Institutet</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1836/edx-explore-statistics-with-r</t>
+  </si>
+  <si>
+    <t>Driving Business Results with Big Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> openSAP</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/3513/opensap-driving-business-results-with-big-data</t>
+  </si>
+  <si>
+    <t>Statistical Computing with R - a gentle introduction</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4545/statistical-computing-with-r-a-gentle-introduction</t>
+  </si>
+  <si>
+    <t>Comprendre le Big Data à travers les films de cinéma</t>
+  </si>
+  <si>
+    <t>ENSAE-ENSAI Formation Continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OpenClassrooms</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4445/openclassrooms-comprendre-le-big-data-a-travers-les-films-de-cinema</t>
+  </si>
+  <si>
+    <t>Intro to Data Analysis</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4937/udacity-intro-to-data-analysis</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>Universitat Oberta de Catalunya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMMA</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4111/emma-business-intelligence</t>
+  </si>
+  <si>
+    <t>More Data Mining with Weka</t>
+  </si>
+  <si>
+    <t>University of Waikato</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1748/more-data-mining-with-weka</t>
+  </si>
+  <si>
+    <t>Data Mining with Weka</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1152/data-mining-with-weka</t>
+  </si>
+  <si>
+    <t>Statistical Thinking for Data Science and Analytics</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4913/edx-statistical-thinking-for-data-science-and-analytics</t>
+  </si>
+  <si>
+    <t>Text Analytics with SAP HANA Platform</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/5081/opensap-text-analytics-with-sap-hana-platform</t>
+  </si>
+  <si>
+    <t>Case Studies in Functional Genomics</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/2976/edx-case-studies-in-functional-genomics</t>
+  </si>
+  <si>
+    <t>The Analytics Edge</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1623/edx-the-analytics-edge</t>
+  </si>
+  <si>
+    <t>Advanced Data Mining with Weka</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6146/advanced-data-mining-with-weka</t>
+  </si>
+  <si>
+    <t>Statistics and R</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/2960/edx-statistics-and-r</t>
+  </si>
+  <si>
+    <t>Deploying a Hadoop Cluster</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6274/udacity-deploying-a-hadoop-cluster</t>
+  </si>
+  <si>
+    <t>Arvuti kasutamine uurimistöös</t>
+  </si>
+  <si>
+    <t>Tallinn University</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/3735/emma-arvuti-kasutamine-uurimistoos</t>
+  </si>
+  <si>
+    <t>Foundations of Data Analysis - Part 1: Statistics Using R</t>
+  </si>
+  <si>
+    <t>The University of Texas at Austin</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4805/edx-foundations-of-data-analysis-part-1-statistics-using-r</t>
+  </si>
+  <si>
+    <t>Mining Massive Datasets</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stanford OpenEdx</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/2406/stanford-openedx-mining-massive-datasets</t>
+  </si>
+  <si>
+    <t>Foundations of Data Analysis - Part 2: Inferential Statistics</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4804/edx-foundations-of-data-analysis-part-2-inferential-statistics</t>
+  </si>
+  <si>
+    <t>Biostatistics for Big Data Applications</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6843/edx-biostatistics-for-big-data-applications</t>
+  </si>
+  <si>
+    <t>Introduction to R</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Datacamp</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/7630/datacamp-introduction-to-r</t>
+  </si>
+  <si>
+    <t>Intro to Python for Data Science</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/7631/datacamp-intro-to-python-for-data-science</t>
+  </si>
+  <si>
+    <t>Data Analysis: Take It to the MAX()</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/2916/edx-data-analysis-take-it-to-the-max</t>
+  </si>
+  <si>
     <t>Analyzing Big Data with Microsoft R Server</t>
   </si>
   <si>
     <t>Microsoft</t>
   </si>
   <si>
-    <t>Self paced</t>
-  </si>
-  <si>
     <t>https://www.class-central.com/mooc/7822/edx-analyzing-big-data-with-microsoft-r-server</t>
   </si>
   <si>
+    <t>Data Science Professional Project</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6422/edx-data-science-professional-project</t>
+  </si>
+  <si>
+    <t>Programming with Python for Data Science</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6471/edx-programming-with-python-for-data-science</t>
+  </si>
+  <si>
+    <t>Introduction to R for Data Science</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/3928/edx-introduction-to-r-for-data-science</t>
+  </si>
+  <si>
+    <t>Introduction to Python for Data Science</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/5683/edx-introduction-to-python-for-data-science</t>
+  </si>
+  <si>
+    <t>Processing Big Data with Hadoop in Azure HDInsight</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/3917/edx-processing-big-data-with-hadoop-in-azure-hdinsight</t>
+  </si>
+  <si>
+    <t>Data Science Essentials</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6512/edx-data-science-essentials</t>
+  </si>
+  <si>
+    <t>Analyzing and Visualizing Data with Excel</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4480/edx-analyzing-and-visualizing-data-with-excel</t>
+  </si>
+  <si>
+    <t>Data Science Orientation</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6405/edx-data-science-orientation</t>
+  </si>
+  <si>
+    <t>Programming with R for Data Science</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6038/edx-programming-with-r-for-data-science</t>
+  </si>
+  <si>
+    <t>Applied Machine Learning</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6406/edx-applied-machine-learning</t>
+  </si>
+  <si>
     <t>Processing Real-Time Data Streams in Azure</t>
   </si>
   <si>
     <t>https://www.class-central.com/mooc/7810/edx-processing-real-time-data-streams-in-azure</t>
   </si>
   <si>
+    <t>Implementing Real-Time Analysis with Hadoop in Azure HDInsight</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4152/edx-implementing-real-time-analysis-with-hadoop-in-azure-hdinsight</t>
+  </si>
+  <si>
+    <t>Implementing Predictive Solutions with Spark in Azure HDInsight</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4151/edx-implementing-predictive-solutions-with-spark-in-azure-hdinsight</t>
+  </si>
+  <si>
+    <t>Knowledge Management and Big Data in Business</t>
+  </si>
+  <si>
+    <t>Hong Kong Polytechnic University</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/3642/edx-knowledge-management-and-big-data-in-business</t>
+  </si>
+  <si>
     <t>Processing Big Data with Azure Data Lake Analytics</t>
   </si>
   <si>
     <t>https://www.class-central.com/mooc/7823/edx-processing-big-data-with-azure-data-lake-analytics</t>
   </si>
   <si>
-    <t>Data Processing Using Python</t>
-  </si>
-  <si>
-    <t>Nanjing University</t>
-  </si>
-  <si>
-    <t>13th Feb, 2017</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/7751/coursera-data-processing-using-python</t>
-  </si>
-  <si>
-    <t>Qualitative Research Methods</t>
-  </si>
-  <si>
-    <t>University of Amsterdam</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4176/coursera-qualitative-research-methods</t>
-  </si>
-  <si>
-    <t>Predictive Analytics: Gaining Insights from Big Data</t>
-  </si>
-  <si>
-    <t>Queensland University of Technology</t>
-  </si>
-  <si>
-    <t>20th Feb, 2017</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/7645/futurelearn-predictive-analytics-gaining-insights-from-big-data</t>
-  </si>
-  <si>
-    <t>Applied Data Science: An Introduction</t>
-  </si>
-  <si>
-    <t>Syracuse University</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Open Education by Blackboard</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1806/open-education-by-blackboard-applied-data-science-an-introduction</t>
-  </si>
-  <si>
-    <t>Intro to Hadoop and MapReduce</t>
-  </si>
-  <si>
-    <t>Cloudera</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Udacity</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1470/udacity-intro-to-hadoop-and-mapreduce</t>
-  </si>
-  <si>
-    <t>Big Data applications and Analytics</t>
-  </si>
-  <si>
-    <t>Indiana University</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Independent</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1948/big-data-applications-and-analytics</t>
-  </si>
-  <si>
-    <t>Intro to Data Science</t>
-  </si>
-  <si>
-    <t>No provider</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1480/udacity-intro-to-data-science</t>
-  </si>
-  <si>
-    <t>Data Analysis with R</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1478/udacity-data-analysis-with-r</t>
-  </si>
-  <si>
-    <t>Making Sense of Data</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1821/making-sense-of-data</t>
-  </si>
-  <si>
-    <t>Data, Analytics and Learning</t>
-  </si>
-  <si>
-    <t>University of Texas Arlington</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/2144/edx-data-analytics-and-learning</t>
-  </si>
-  <si>
-    <t>Real-Time Analytics with Apache Storm</t>
-  </si>
-  <si>
-    <t>Twitter</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/3000/udacity-real-time-analytics-with-apache-storm</t>
-  </si>
-  <si>
-    <t>Data Visualization and D3.js</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/2898/udacity-data-visualization-and-d3-js</t>
-  </si>
-  <si>
-    <t>Model Building and Validation</t>
-  </si>
-  <si>
-    <t>AT&amp;T</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/3256/udacity-model-building-and-validation</t>
-  </si>
-  <si>
-    <t>Health Informatics in the Cloud</t>
-  </si>
-  <si>
-    <t>Georgia Institute of Technology, Georgia Tech Online Master of Science in Computer Science</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/3288/udacity-health-informatics-in-the-cloud</t>
-  </si>
-  <si>
-    <t>Datascience et Analyse situationnelle : dans les coulisses du Big Data</t>
-  </si>
-  <si>
-    <t>IONIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IONIS</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/2186/ionis-datascience-et-analyse-situationnelle-dans-les-coulisses-du-big-data</t>
-  </si>
-  <si>
-    <t>Big Data in Education</t>
-  </si>
-  <si>
-    <t>Columbia University</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/3725/edx-big-data-in-education</t>
-  </si>
-  <si>
-    <t>Sabermetrics 101: Introduction to Baseball Analytics</t>
-  </si>
-  <si>
-    <t>Boston University</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1837/edx-sabermetrics-101-introduction-to-baseball-analytics</t>
-  </si>
-  <si>
-    <t>Explore Statistics with R</t>
-  </si>
-  <si>
-    <t>Karolinska Institutet</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1836/edx-explore-statistics-with-r</t>
-  </si>
-  <si>
-    <t>Driving Business Results with Big Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> openSAP</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/3513/opensap-driving-business-results-with-big-data</t>
-  </si>
-  <si>
-    <t>Statistical Computing with R - a gentle introduction</t>
-  </si>
-  <si>
-    <t>University College London</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4545/statistical-computing-with-r-a-gentle-introduction</t>
-  </si>
-  <si>
-    <t>Comprendre le Big Data à travers les films de cinéma</t>
-  </si>
-  <si>
-    <t>ENSAE-ENSAI Formation Continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OpenClassrooms</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4445/openclassrooms-comprendre-le-big-data-a-travers-les-films-de-cinema</t>
-  </si>
-  <si>
-    <t>Intro to Data Analysis</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4937/udacity-intro-to-data-analysis</t>
-  </si>
-  <si>
-    <t>Business Intelligence</t>
-  </si>
-  <si>
-    <t>Universitat Oberta de Catalunya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EMMA</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4111/emma-business-intelligence</t>
-  </si>
-  <si>
-    <t>More Data Mining with Weka</t>
-  </si>
-  <si>
-    <t>University of Waikato</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1748/more-data-mining-with-weka</t>
-  </si>
-  <si>
-    <t>Data Mining with Weka</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1152/data-mining-with-weka</t>
-  </si>
-  <si>
-    <t>Statistical Thinking for Data Science and Analytics</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4913/edx-statistical-thinking-for-data-science-and-analytics</t>
-  </si>
-  <si>
-    <t>Text Analytics with SAP HANA Platform</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/5081/opensap-text-analytics-with-sap-hana-platform</t>
-  </si>
-  <si>
-    <t>Case Studies in Functional Genomics</t>
-  </si>
-  <si>
-    <t>Harvard University</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/2976/edx-case-studies-in-functional-genomics</t>
-  </si>
-  <si>
-    <t>The Analytics Edge</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1623/edx-the-analytics-edge</t>
-  </si>
-  <si>
-    <t>Advanced Data Mining with Weka</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6146/advanced-data-mining-with-weka</t>
-  </si>
-  <si>
-    <t>Statistics and R</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/2960/edx-statistics-and-r</t>
-  </si>
-  <si>
-    <t>Deploying a Hadoop Cluster</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6274/udacity-deploying-a-hadoop-cluster</t>
-  </si>
-  <si>
-    <t>Arvuti kasutamine uurimistöös</t>
-  </si>
-  <si>
-    <t>Tallinn University</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/3735/emma-arvuti-kasutamine-uurimistoos</t>
-  </si>
-  <si>
-    <t>Foundations of Data Analysis - Part 1: Statistics Using R</t>
-  </si>
-  <si>
-    <t>The University of Texas at Austin</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4805/edx-foundations-of-data-analysis-part-1-statistics-using-r</t>
-  </si>
-  <si>
-    <t>Mining Massive Datasets</t>
-  </si>
-  <si>
-    <t>Stanford University</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stanford OpenEdx</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/2406/stanford-openedx-mining-massive-datasets</t>
-  </si>
-  <si>
-    <t>Foundations of Data Analysis - Part 2: Inferential Statistics</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4804/edx-foundations-of-data-analysis-part-2-inferential-statistics</t>
-  </si>
-  <si>
-    <t>Biostatistics for Big Data Applications</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6843/edx-biostatistics-for-big-data-applications</t>
-  </si>
-  <si>
-    <t>Introduction to R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Datacamp</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/7630/datacamp-introduction-to-r</t>
-  </si>
-  <si>
-    <t>Intro to Python for Data Science</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/7631/datacamp-intro-to-python-for-data-science</t>
-  </si>
-  <si>
-    <t>Data Analysis: Take It to the MAX()</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/2916/edx-data-analysis-take-it-to-the-max</t>
-  </si>
-  <si>
-    <t>Data Science Professional Project</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6422/edx-data-science-professional-project</t>
-  </si>
-  <si>
-    <t>Programming with Python for Data Science</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6471/edx-programming-with-python-for-data-science</t>
-  </si>
-  <si>
-    <t>Introduction to R for Data Science</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/3928/edx-introduction-to-r-for-data-science</t>
-  </si>
-  <si>
-    <t>Introduction to Python for Data Science</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/5683/edx-introduction-to-python-for-data-science</t>
-  </si>
-  <si>
-    <t>Processing Big Data with Hadoop in Azure HDInsight</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/3917/edx-processing-big-data-with-hadoop-in-azure-hdinsight</t>
-  </si>
-  <si>
-    <t>Data Science Essentials</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6512/edx-data-science-essentials</t>
-  </si>
-  <si>
-    <t>Analyzing and Visualizing Data with Excel</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4480/edx-analyzing-and-visualizing-data-with-excel</t>
-  </si>
-  <si>
-    <t>Data Science Orientation</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6405/edx-data-science-orientation</t>
-  </si>
-  <si>
-    <t>Programming with R for Data Science</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6038/edx-programming-with-r-for-data-science</t>
-  </si>
-  <si>
-    <t>Applied Machine Learning</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6406/edx-applied-machine-learning</t>
-  </si>
-  <si>
-    <t>Implementing Real-Time Analysis with Hadoop in Azure HDInsight</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4152/edx-implementing-real-time-analysis-with-hadoop-in-azure-hdinsight</t>
-  </si>
-  <si>
-    <t>Implementing Predictive Solutions with Spark in Azure HDInsight</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4151/edx-implementing-predictive-solutions-with-spark-in-azure-hdinsight</t>
-  </si>
-  <si>
-    <t>Knowledge Management and Big Data in Business</t>
-  </si>
-  <si>
-    <t>Hong Kong Polytechnic University</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/3642/edx-knowledge-management-and-big-data-in-business</t>
-  </si>
-  <si>
     <t>Data Visualization for All</t>
   </si>
   <si>
@@ -838,6 +838,297 @@
     <t>https://www.class-central.com/mooc/3997/futurelearn-learn-to-code-for-data-analysis</t>
   </si>
   <si>
+    <t>The Data Scientist’s Toolbox</t>
+  </si>
+  <si>
+    <t>23rd Jan, 2017</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1712/coursera-the-data-scientist-s-toolbox</t>
+  </si>
+  <si>
+    <t>Statistical Inference</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1717/coursera-statistical-inference</t>
+  </si>
+  <si>
+    <t>Data Management and Visualization</t>
+  </si>
+  <si>
+    <t>Wesleyan University</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4184/coursera-data-management-and-visualization</t>
+  </si>
+  <si>
+    <t>Data Visualization and Communication with Tableau</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4297/coursera-data-visualization-and-communication-with-tableau</t>
+  </si>
+  <si>
+    <t>Fundamentos del análisis de datos para la toma de decisiones</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4603/coursera-fundamentos-del-analisis-de-datos-para-la-toma-de-decisiones</t>
+  </si>
+  <si>
+    <t>Advanced Linear Models for Data Science 1: Least Squares</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6180/coursera-advanced-linear-models-for-data-science-1-least-squares</t>
+  </si>
+  <si>
+    <t>Basic Data Descriptors, Statistical Distributions, and Application to Business Decisions</t>
+  </si>
+  <si>
+    <t>Rice University</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/7025/coursera-basic-data-descriptors-statistical-distributions-and-application-to-business-decisions</t>
+  </si>
+  <si>
+    <t>Building Data Visualization Tools</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/7176/coursera-building-data-visualization-tools</t>
+  </si>
+  <si>
+    <t>Regression Models</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1718/coursera-regression-models</t>
+  </si>
+  <si>
+    <t>R Programming</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1713/coursera-r-programming</t>
+  </si>
+  <si>
+    <t>Developing Data Products</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1720/coursera-developing-data-products</t>
+  </si>
+  <si>
+    <t>Cluster Analysis in Data Mining</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/2735/coursera-cluster-analysis-in-data-mining</t>
+  </si>
+  <si>
+    <t>Big Data Science with the BD2K-LINCS Data Coordination and Integration Center</t>
+  </si>
+  <si>
+    <t>Icahn School of Medicine at Mount Sinai</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/3024/coursera-big-data-science-with-the-bd2k-lincs-data-coordination-and-integration-center</t>
+  </si>
+  <si>
+    <t>Математика и Python для анализа данных</t>
+  </si>
+  <si>
+    <t>Moscow Institute of Physics and Technology</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/5525/coursera---python---</t>
+  </si>
+  <si>
+    <t>Getting and Cleaning Data</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1714/coursera-getting-and-cleaning-data</t>
+  </si>
+  <si>
+    <t>Process Mining: Data science in Action</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/2445/coursera-process-mining-data-science-in-action</t>
+  </si>
+  <si>
+    <t>Text Mining and Analytics</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/2736/coursera-text-mining-and-analytics</t>
+  </si>
+  <si>
+    <t>Big Data, Cloud Computing, &amp; CDN Emerging Technologies</t>
+  </si>
+  <si>
+    <t>Yonsei University</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/3931/coursera-big-data-cloud-computing-cdn-emerging-technologies</t>
+  </si>
+  <si>
+    <t>Managing Data Analysis</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4388/coursera-managing-data-analysis</t>
+  </si>
+  <si>
+    <t>Dealing With Missing Data</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6086/coursera-dealing-with-missing-data</t>
+  </si>
+  <si>
+    <t>Fundamentals of Visualization with Tableau</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6808/coursera-fundamentals-of-visualization-with-tableau</t>
+  </si>
+  <si>
+    <t>Data Science Readiness Assessment</t>
+  </si>
+  <si>
+    <t>University of Notre Dame</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/7995/edx-data-science-readiness-assessment</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1715/coursera-exploratory-data-analysis</t>
+  </si>
+  <si>
+    <t>Hadoop Platform and Application Framework</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4269/coursera-hadoop-platform-and-application-framework</t>
+  </si>
+  <si>
+    <t>Data Science in Real Life</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4389/coursera-data-science-in-real-life</t>
+  </si>
+  <si>
+    <t>Building a Data Science Team</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4391/coursera-building-a-data-science-team</t>
+  </si>
+  <si>
+    <t>Построение выводов по данным</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/5522/coursera----</t>
+  </si>
+  <si>
+    <t>Big Data Integration and Processing</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6467/coursera-big-data-integration-and-processing</t>
+  </si>
+  <si>
+    <t>Essential Design Principles for Tableau</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/6809/coursera-essential-design-principles-for-tableau</t>
+  </si>
+  <si>
+    <t>Advanced R Programming</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/7174/coursera-advanced-r-programming</t>
+  </si>
+  <si>
+    <t>Hands-on Text Mining and Analytics</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/7338/coursera-hands-on-text-mining-and-analytics</t>
+  </si>
+  <si>
+    <t>Reproducible Research</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/1716/coursera-reproducible-research</t>
+  </si>
+  <si>
+    <t>Introduction to Big Data</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4164/coursera-introduction-to-big-data</t>
+  </si>
+  <si>
+    <t>Data Analysis Tools</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4169/coursera-data-analysis-tools</t>
+  </si>
+  <si>
+    <t>A Crash Course in Data Science</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4392/coursera-a-crash-course-in-data-science</t>
+  </si>
+  <si>
+    <t>Recolección y exploración de datos</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/4614/coursera-recoleccion-y-exploracion-de-datos</t>
+  </si>
+  <si>
+    <t>The R Programming Environment</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/7170/coursera-the-r-programming-environment</t>
+  </si>
+  <si>
+    <t>Building R Packages</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/7175/coursera-building-r-packages</t>
+  </si>
+  <si>
+    <t>A developer's guide to Exploring and Visualizing IoT Data</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/8022/coursera-a-developer-s-guide-to-exploring-and-visualizing-iot-data</t>
+  </si>
+  <si>
+    <t>Orchestrating Big Data with Azure Data Factory</t>
+  </si>
+  <si>
+    <t>31st Dec, 2016</t>
+  </si>
+  <si>
+    <t>https://www.class-central.com/mooc/7812/edx-orchestrating-big-data-with-azure-data-factory</t>
+  </si>
+  <si>
     <t>Information Visualization</t>
   </si>
   <si>
@@ -845,297 +1136,6 @@
   </si>
   <si>
     <t>https://www.class-central.com/mooc/627/information-visualization</t>
-  </si>
-  <si>
-    <t>The Data Scientist’s Toolbox</t>
-  </si>
-  <si>
-    <t>23rd Jan, 2017</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1712/coursera-the-data-scientist-s-toolbox</t>
-  </si>
-  <si>
-    <t>Statistical Inference</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1717/coursera-statistical-inference</t>
-  </si>
-  <si>
-    <t>Data Management and Visualization</t>
-  </si>
-  <si>
-    <t>Wesleyan University</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4184/coursera-data-management-and-visualization</t>
-  </si>
-  <si>
-    <t>Data Visualization and Communication with Tableau</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4297/coursera-data-visualization-and-communication-with-tableau</t>
-  </si>
-  <si>
-    <t>Fundamentos del análisis de datos para la toma de decisiones</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4603/coursera-fundamentos-del-analisis-de-datos-para-la-toma-de-decisiones</t>
-  </si>
-  <si>
-    <t>Advanced Linear Models for Data Science 1: Least Squares</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6180/coursera-advanced-linear-models-for-data-science-1-least-squares</t>
-  </si>
-  <si>
-    <t>Basic Data Descriptors, Statistical Distributions, and Application to Business Decisions</t>
-  </si>
-  <si>
-    <t>Rice University</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/7025/coursera-basic-data-descriptors-statistical-distributions-and-application-to-business-decisions</t>
-  </si>
-  <si>
-    <t>Building Data Visualization Tools</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/7176/coursera-building-data-visualization-tools</t>
-  </si>
-  <si>
-    <t>Regression Models</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1718/coursera-regression-models</t>
-  </si>
-  <si>
-    <t>Developing Data Products</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1720/coursera-developing-data-products</t>
-  </si>
-  <si>
-    <t>R Programming</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1713/coursera-r-programming</t>
-  </si>
-  <si>
-    <t>Cluster Analysis in Data Mining</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/2735/coursera-cluster-analysis-in-data-mining</t>
-  </si>
-  <si>
-    <t>Big Data Science with the BD2K-LINCS Data Coordination and Integration Center</t>
-  </si>
-  <si>
-    <t>Icahn School of Medicine at Mount Sinai</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/3024/coursera-big-data-science-with-the-bd2k-lincs-data-coordination-and-integration-center</t>
-  </si>
-  <si>
-    <t>Математика и Python для анализа данных</t>
-  </si>
-  <si>
-    <t>Moscow Institute of Physics and Technology</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/5525/coursera---python---</t>
-  </si>
-  <si>
-    <t>Getting and Cleaning Data</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1714/coursera-getting-and-cleaning-data</t>
-  </si>
-  <si>
-    <t>Process Mining: Data science in Action</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/2445/coursera-process-mining-data-science-in-action</t>
-  </si>
-  <si>
-    <t>Text Mining and Analytics</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/2736/coursera-text-mining-and-analytics</t>
-  </si>
-  <si>
-    <t>Big Data, Cloud Computing, &amp; CDN Emerging Technologies</t>
-  </si>
-  <si>
-    <t>Yonsei University</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/3931/coursera-big-data-cloud-computing-cdn-emerging-technologies</t>
-  </si>
-  <si>
-    <t>Managing Data Analysis</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4388/coursera-managing-data-analysis</t>
-  </si>
-  <si>
-    <t>Dealing With Missing Data</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6086/coursera-dealing-with-missing-data</t>
-  </si>
-  <si>
-    <t>Fundamentals of Visualization with Tableau</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6808/coursera-fundamentals-of-visualization-with-tableau</t>
-  </si>
-  <si>
-    <t>Data Science Readiness Assessment</t>
-  </si>
-  <si>
-    <t>University of Notre Dame</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/7995/edx-data-science-readiness-assessment</t>
-  </si>
-  <si>
-    <t>Exploratory Data Analysis</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1715/coursera-exploratory-data-analysis</t>
-  </si>
-  <si>
-    <t>Hadoop Platform and Application Framework</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4269/coursera-hadoop-platform-and-application-framework</t>
-  </si>
-  <si>
-    <t>Data Science in Real Life</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4389/coursera-data-science-in-real-life</t>
-  </si>
-  <si>
-    <t>Building a Data Science Team</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4391/coursera-building-a-data-science-team</t>
-  </si>
-  <si>
-    <t>Построение выводов по данным</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/5522/coursera----</t>
-  </si>
-  <si>
-    <t>Big Data Integration and Processing</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6467/coursera-big-data-integration-and-processing</t>
-  </si>
-  <si>
-    <t>Essential Design Principles for Tableau</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/6809/coursera-essential-design-principles-for-tableau</t>
-  </si>
-  <si>
-    <t>Advanced R Programming</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/7174/coursera-advanced-r-programming</t>
-  </si>
-  <si>
-    <t>Hands-on Text Mining and Analytics</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/7338/coursera-hands-on-text-mining-and-analytics</t>
-  </si>
-  <si>
-    <t>Reproducible Research</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/1716/coursera-reproducible-research</t>
-  </si>
-  <si>
-    <t>Introduction to Big Data</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4164/coursera-introduction-to-big-data</t>
-  </si>
-  <si>
-    <t>Data Analysis Tools</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4169/coursera-data-analysis-tools</t>
-  </si>
-  <si>
-    <t>A Crash Course in Data Science</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4392/coursera-a-crash-course-in-data-science</t>
-  </si>
-  <si>
-    <t>Recolección y exploración de datos</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/4614/coursera-recoleccion-y-exploracion-de-datos</t>
-  </si>
-  <si>
-    <t>Building R Packages</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/7175/coursera-building-r-packages</t>
-  </si>
-  <si>
-    <t>The R Programming Environment</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/7170/coursera-the-r-programming-environment</t>
-  </si>
-  <si>
-    <t>A developer's guide to Exploring and Visualizing IoT Data</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/8022/coursera-a-developer-s-guide-to-exploring-and-visualizing-iot-data</t>
-  </si>
-  <si>
-    <t>Orchestrating Big Data with Azure Data Factory</t>
-  </si>
-  <si>
-    <t>31st Dec, 2016</t>
-  </si>
-  <si>
-    <t>https://www.class-central.com/mooc/7812/edx-orchestrating-big-data-with-azure-data-factory</t>
   </si>
   <si>
     <t>Health Data Analytics</t>
@@ -2619,7 +2619,7 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>95</v>
@@ -2636,536 +2636,536 @@
         <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
         <v>112</v>
       </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="F50" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s">
         <v>178</v>
       </c>
-      <c r="B51" t="s">
-        <v>127</v>
-      </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="F51" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
         <v>186</v>
-      </c>
-      <c r="F53" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
         <v>188</v>
       </c>
-      <c r="B54" t="s">
-        <v>185</v>
-      </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
         <v>189</v>
@@ -3176,16 +3176,16 @@
         <v>190</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
         <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
         <v>191</v>
@@ -3196,16 +3196,16 @@
         <v>192</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
         <v>193</v>
@@ -3216,16 +3216,16 @@
         <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="F57" t="s">
         <v>196</v>
@@ -3236,16 +3236,16 @@
         <v>197</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
         <v>198</v>
@@ -3256,116 +3256,116 @@
         <v>199</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
         <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
         <v>214</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s">
         <v>215</v>
@@ -3376,16 +3376,16 @@
         <v>216</v>
       </c>
       <c r="B65" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
         <v>217</v>
@@ -3396,16 +3396,16 @@
         <v>218</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
         <v>219</v>
@@ -3416,16 +3416,16 @@
         <v>220</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F67" t="s">
         <v>222</v>
@@ -3436,13 +3436,13 @@
         <v>223</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -3456,16 +3456,16 @@
         <v>225</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="C69" t="s">
         <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E69" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="F69" t="s">
         <v>226</v>
@@ -3476,56 +3476,56 @@
         <v>227</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C70" t="s">
         <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="F70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
         <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E71" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C72" t="s">
         <v>64</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E72" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="F72" t="s">
         <v>233</v>
@@ -3536,16 +3536,16 @@
         <v>234</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C73" t="s">
         <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E73" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
         <v>235</v>
@@ -3556,16 +3556,16 @@
         <v>236</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
         <v>64</v>
       </c>
       <c r="D74" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="F74" t="s">
         <v>237</v>
@@ -3576,16 +3576,16 @@
         <v>238</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C75" t="s">
         <v>64</v>
       </c>
       <c r="D75" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F75" t="s">
         <v>239</v>
@@ -3596,16 +3596,16 @@
         <v>240</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C76" t="s">
         <v>64</v>
       </c>
       <c r="D76" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
         <v>241</v>
@@ -3616,16 +3616,16 @@
         <v>242</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C77" t="s">
         <v>64</v>
       </c>
       <c r="D77" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
         <v>243</v>
@@ -3636,13 +3636,13 @@
         <v>244</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C78" t="s">
         <v>64</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -3656,13 +3656,13 @@
         <v>246</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C79" t="s">
         <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -3676,13 +3676,13 @@
         <v>248</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C80" t="s">
         <v>64</v>
       </c>
       <c r="D80" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -3696,36 +3696,36 @@
         <v>250</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="C81" t="s">
         <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B82" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C82" t="s">
         <v>64</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
         <v>254</v>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
@@ -3805,7 +3805,7 @@
         <v>267</v>
       </c>
       <c r="E86" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F86" t="s">
         <v>268</v>
@@ -3836,16 +3836,16 @@
         <v>274</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
         <v>275</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
         <v>276</v>
@@ -3862,10 +3862,10 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
+        <v>275</v>
+      </c>
+      <c r="E89" t="s">
         <v>278</v>
-      </c>
-      <c r="E89" t="s">
-        <v>36</v>
       </c>
       <c r="F89" t="s">
         <v>279</v>
@@ -3876,16 +3876,16 @@
         <v>280</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>281</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
         <v>282</v>
@@ -3896,76 +3896,76 @@
         <v>283</v>
       </c>
       <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>275</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
         <v>284</v>
-      </c>
-      <c r="C91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" t="s">
-        <v>278</v>
-      </c>
-      <c r="E91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>275</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" t="s">
         <v>286</v>
-      </c>
-      <c r="B92" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" t="s">
-        <v>278</v>
-      </c>
-      <c r="E92" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>275</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
         <v>288</v>
-      </c>
-      <c r="B93" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" t="s">
-        <v>278</v>
-      </c>
-      <c r="E93" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
+        <v>289</v>
+      </c>
+      <c r="B94" t="s">
         <v>290</v>
       </c>
-      <c r="B94" t="s">
-        <v>32</v>
-      </c>
       <c r="C94" t="s">
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
         <v>291</v>
@@ -3976,24 +3976,24 @@
         <v>292</v>
       </c>
       <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>275</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
         <v>293</v>
-      </c>
-      <c r="C95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" t="s">
-        <v>278</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B96" t="s">
         <v>32</v>
@@ -4002,10 +4002,10 @@
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="F96" t="s">
         <v>296</v>
@@ -4022,7 +4022,7 @@
         <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
         <v>298</v>
@@ -4042,10 +4042,10 @@
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E98" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
         <v>301</v>
@@ -4056,13 +4056,13 @@
         <v>302</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E99" t="s">
         <v>303</v>
@@ -4076,16 +4076,16 @@
         <v>305</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>306</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
-        <v>306</v>
+        <v>121</v>
       </c>
       <c r="F100" t="s">
         <v>307</v>
@@ -4102,10 +4102,10 @@
         <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F101" t="s">
         <v>310</v>
@@ -4116,56 +4116,56 @@
         <v>311</v>
       </c>
       <c r="B102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>275</v>
+      </c>
+      <c r="E102" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" t="s">
         <v>312</v>
-      </c>
-      <c r="C102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" t="s">
-        <v>278</v>
-      </c>
-      <c r="E102" t="s">
-        <v>163</v>
-      </c>
-      <c r="F102" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
+        <v>313</v>
+      </c>
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>275</v>
+      </c>
+      <c r="E103" t="s">
+        <v>156</v>
+      </c>
+      <c r="F103" t="s">
         <v>314</v>
-      </c>
-      <c r="B103" t="s">
-        <v>32</v>
-      </c>
-      <c r="C103" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" t="s">
-        <v>278</v>
-      </c>
-      <c r="E103" t="s">
-        <v>136</v>
-      </c>
-      <c r="F103" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
+        <v>315</v>
+      </c>
+      <c r="B104" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>275</v>
+      </c>
+      <c r="E104" t="s">
         <v>316</v>
-      </c>
-      <c r="B104" t="s">
-        <v>84</v>
-      </c>
-      <c r="C104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" t="s">
-        <v>278</v>
-      </c>
-      <c r="E104" t="s">
-        <v>163</v>
       </c>
       <c r="F104" t="s">
         <v>317</v>
@@ -4176,16 +4176,16 @@
         <v>318</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>319</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E105" t="s">
-        <v>319</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
         <v>320</v>
@@ -4196,16 +4196,16 @@
         <v>321</v>
       </c>
       <c r="B106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>275</v>
+      </c>
+      <c r="E106" t="s">
         <v>322</v>
-      </c>
-      <c r="C106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" t="s">
-        <v>278</v>
-      </c>
-      <c r="E106" t="s">
-        <v>36</v>
       </c>
       <c r="F106" t="s">
         <v>323</v>
@@ -4216,56 +4216,56 @@
         <v>324</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
         <v>325</v>
-      </c>
-      <c r="F107" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
+        <v>326</v>
+      </c>
+      <c r="B108" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>275</v>
+      </c>
+      <c r="E108" t="s">
+        <v>121</v>
+      </c>
+      <c r="F108" t="s">
         <v>327</v>
-      </c>
-      <c r="B108" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" t="s">
-        <v>278</v>
-      </c>
-      <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
+        <v>328</v>
+      </c>
+      <c r="B109" t="s">
         <v>329</v>
       </c>
-      <c r="B109" t="s">
-        <v>56</v>
-      </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D109" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E109" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="F109" t="s">
         <v>330</v>
@@ -4276,36 +4276,36 @@
         <v>331</v>
       </c>
       <c r="B110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>275</v>
+      </c>
+      <c r="E110" t="s">
+        <v>195</v>
+      </c>
+      <c r="F110" t="s">
         <v>332</v>
-      </c>
-      <c r="C110" t="s">
-        <v>64</v>
-      </c>
-      <c r="D110" t="s">
-        <v>278</v>
-      </c>
-      <c r="E110" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
+        <v>333</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>275</v>
+      </c>
+      <c r="E111" t="s">
         <v>334</v>
-      </c>
-      <c r="B111" t="s">
-        <v>32</v>
-      </c>
-      <c r="C111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" t="s">
-        <v>278</v>
-      </c>
-      <c r="E111" t="s">
-        <v>202</v>
       </c>
       <c r="F111" t="s">
         <v>335</v>
@@ -4316,13 +4316,13 @@
         <v>336</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E112" t="s">
         <v>337</v>
@@ -4342,238 +4342,238 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E113" t="s">
+        <v>129</v>
+      </c>
+      <c r="F113" t="s">
         <v>340</v>
-      </c>
-      <c r="F113" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
+        <v>341</v>
+      </c>
+      <c r="B114" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>275</v>
+      </c>
+      <c r="E114" t="s">
+        <v>81</v>
+      </c>
+      <c r="F114" t="s">
         <v>342</v>
-      </c>
-      <c r="B114" t="s">
-        <v>32</v>
-      </c>
-      <c r="C114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" t="s">
-        <v>278</v>
-      </c>
-      <c r="E114" t="s">
-        <v>136</v>
-      </c>
-      <c r="F114" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
+        <v>343</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>275</v>
+      </c>
+      <c r="E115" t="s">
+        <v>125</v>
+      </c>
+      <c r="F115" t="s">
         <v>344</v>
-      </c>
-      <c r="B115" t="s">
-        <v>312</v>
-      </c>
-      <c r="C115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" t="s">
-        <v>278</v>
-      </c>
-      <c r="E115" t="s">
-        <v>81</v>
-      </c>
-      <c r="F115" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
+        <v>345</v>
+      </c>
+      <c r="B116" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>275</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
         <v>346</v>
-      </c>
-      <c r="B116" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" t="s">
-        <v>278</v>
-      </c>
-      <c r="E116" t="s">
-        <v>132</v>
-      </c>
-      <c r="F116" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
+        <v>347</v>
+      </c>
+      <c r="B117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>275</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
         <v>348</v>
-      </c>
-      <c r="B117" t="s">
-        <v>56</v>
-      </c>
-      <c r="C117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" t="s">
-        <v>278</v>
-      </c>
-      <c r="E117" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
+        <v>349</v>
+      </c>
+      <c r="B118" t="s">
+        <v>319</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>275</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
         <v>350</v>
-      </c>
-      <c r="B118" t="s">
-        <v>32</v>
-      </c>
-      <c r="C118" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" t="s">
-        <v>278</v>
-      </c>
-      <c r="E118" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
+        <v>351</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>275</v>
+      </c>
+      <c r="E119" t="s">
+        <v>113</v>
+      </c>
+      <c r="F119" t="s">
         <v>352</v>
-      </c>
-      <c r="B119" t="s">
-        <v>322</v>
-      </c>
-      <c r="C119" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" t="s">
-        <v>278</v>
-      </c>
-      <c r="E119" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
+        <v>353</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>275</v>
+      </c>
+      <c r="E120" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" t="s">
         <v>354</v>
-      </c>
-      <c r="B120" t="s">
-        <v>32</v>
-      </c>
-      <c r="C120" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" t="s">
-        <v>278</v>
-      </c>
-      <c r="E120" t="s">
-        <v>120</v>
-      </c>
-      <c r="F120" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
+        <v>355</v>
+      </c>
+      <c r="B121" t="s">
+        <v>281</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>275</v>
+      </c>
+      <c r="E121" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" t="s">
         <v>356</v>
-      </c>
-      <c r="B121" t="s">
-        <v>21</v>
-      </c>
-      <c r="C121" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" t="s">
-        <v>278</v>
-      </c>
-      <c r="E121" t="s">
-        <v>40</v>
-      </c>
-      <c r="F121" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
+        <v>357</v>
+      </c>
+      <c r="B122" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>275</v>
+      </c>
+      <c r="E122" t="s">
+        <v>272</v>
+      </c>
+      <c r="F122" t="s">
         <v>358</v>
-      </c>
-      <c r="B122" t="s">
-        <v>284</v>
-      </c>
-      <c r="C122" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" t="s">
-        <v>278</v>
-      </c>
-      <c r="E122" t="s">
-        <v>29</v>
-      </c>
-      <c r="F122" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
+        <v>359</v>
+      </c>
+      <c r="B123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>275</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
         <v>360</v>
-      </c>
-      <c r="B123" t="s">
-        <v>32</v>
-      </c>
-      <c r="C123" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" t="s">
-        <v>278</v>
-      </c>
-      <c r="E123" t="s">
-        <v>272</v>
-      </c>
-      <c r="F123" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
+        <v>361</v>
+      </c>
+      <c r="B124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>275</v>
+      </c>
+      <c r="E124" t="s">
+        <v>81</v>
+      </c>
+      <c r="F124" t="s">
         <v>362</v>
-      </c>
-      <c r="B124" t="s">
-        <v>73</v>
-      </c>
-      <c r="C124" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" t="s">
-        <v>278</v>
-      </c>
-      <c r="E124" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B125" t="s">
         <v>32</v>
@@ -4582,30 +4582,30 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
+        <v>365</v>
+      </c>
+      <c r="B126" t="s">
         <v>366</v>
       </c>
-      <c r="B126" t="s">
-        <v>32</v>
-      </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E126" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="F126" t="s">
         <v>367</v>
@@ -4616,13 +4616,13 @@
         <v>368</v>
       </c>
       <c r="B127" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" t="s">
+        <v>64</v>
+      </c>
+      <c r="D127" t="s">
         <v>369</v>
-      </c>
-      <c r="C127" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" t="s">
-        <v>278</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
@@ -4636,16 +4636,16 @@
         <v>371</v>
       </c>
       <c r="B128" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C128" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="D128" t="s">
         <v>372</v>
       </c>
       <c r="E128" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F128" t="s">
         <v>373</v>
@@ -4659,7 +4659,7 @@
         <v>375</v>
       </c>
       <c r="C129" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D129" t="s">
         <v>376</v>
@@ -4685,7 +4685,7 @@
         <v>379</v>
       </c>
       <c r="E130" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F130" t="s">
         <v>380</v>
@@ -4696,7 +4696,7 @@
         <v>381</v>
       </c>
       <c r="B131" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C131" t="s">
         <v>382</v>
@@ -4716,7 +4716,7 @@
         <v>385</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C132" t="s">
         <v>382</v>
@@ -4736,7 +4736,7 @@
         <v>385</v>
       </c>
       <c r="B133" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C133" t="s">
         <v>382</v>
@@ -4765,7 +4765,7 @@
         <v>390</v>
       </c>
       <c r="E134" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F134" t="s">
         <v>391</v>
@@ -4805,7 +4805,7 @@
         <v>398</v>
       </c>
       <c r="E136" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F136" t="s">
         <v>399</v>
@@ -4925,7 +4925,7 @@
         <v>420</v>
       </c>
       <c r="E142" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F142" t="s">
         <v>421</v>
@@ -4956,7 +4956,7 @@
         <v>427</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C144" t="s">
         <v>64</v>
@@ -4965,7 +4965,7 @@
         <v>428</v>
       </c>
       <c r="E144" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F144" t="s">
         <v>429</v>
@@ -5005,7 +5005,7 @@
         <v>434</v>
       </c>
       <c r="E146" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F146" t="s">
         <v>435</v>
@@ -5036,7 +5036,7 @@
         <v>439</v>
       </c>
       <c r="B148" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C148" t="s">
         <v>440</v>
@@ -5116,7 +5116,7 @@
         <v>456</v>
       </c>
       <c r="B152" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
@@ -5136,7 +5136,7 @@
         <v>459</v>
       </c>
       <c r="B153" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C153" t="s">
         <v>64</v>
@@ -5145,7 +5145,7 @@
         <v>460</v>
       </c>
       <c r="E153" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F153" t="s">
         <v>461</v>
@@ -5205,7 +5205,7 @@
         <v>470</v>
       </c>
       <c r="E156" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F156" t="s">
         <v>471</v>
@@ -5236,7 +5236,7 @@
         <v>476</v>
       </c>
       <c r="B158" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C158" t="s">
         <v>382</v>
@@ -5325,7 +5325,7 @@
         <v>493</v>
       </c>
       <c r="E162" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F162" t="s">
         <v>494</v>
@@ -5339,7 +5339,7 @@
         <v>496</v>
       </c>
       <c r="C163" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D163" t="s">
         <v>497</v>
@@ -5359,7 +5359,7 @@
         <v>500</v>
       </c>
       <c r="C164" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D164" t="s">
         <v>501</v>
@@ -5405,7 +5405,7 @@
         <v>508</v>
       </c>
       <c r="E166" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F166" t="s">
         <v>509</v>
@@ -5445,7 +5445,7 @@
         <v>516</v>
       </c>
       <c r="E168" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F168" t="s">
         <v>517</v>
@@ -5505,7 +5505,7 @@
         <v>526</v>
       </c>
       <c r="E171" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F171" t="s">
         <v>527</v>
@@ -5519,7 +5519,7 @@
         <v>375</v>
       </c>
       <c r="C172" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D172" t="s">
         <v>529</v>
@@ -5556,7 +5556,7 @@
         <v>535</v>
       </c>
       <c r="B174" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C174" t="s">
         <v>85</v>
@@ -5585,7 +5585,7 @@
         <v>539</v>
       </c>
       <c r="E175" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F175" t="s">
         <v>540</v>
@@ -5596,7 +5596,7 @@
         <v>541</v>
       </c>
       <c r="B176" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C176" t="s">
         <v>85</v>
@@ -5605,7 +5605,7 @@
         <v>542</v>
       </c>
       <c r="E176" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F176" t="s">
         <v>543</v>
@@ -5616,10 +5616,10 @@
         <v>544</v>
       </c>
       <c r="B177" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C177" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D177" t="s">
         <v>545</v>
@@ -5676,7 +5676,7 @@
         <v>553</v>
       </c>
       <c r="B180" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C180" t="s">
         <v>85</v>
@@ -5696,7 +5696,7 @@
         <v>556</v>
       </c>
       <c r="B181" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C181" t="s">
         <v>85</v>
@@ -5705,7 +5705,7 @@
         <v>557</v>
       </c>
       <c r="E181" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F181" t="s">
         <v>558</v>
